--- a/src/Samples/MasterTemplateV2.xlsx
+++ b/src/Samples/MasterTemplateV2.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\invoice-generator\src\Samples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDC3827-5E83-4835-80C9-1470CB6B96B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -29,88 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Particulars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSN/SAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sq. Ft. Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Area Maintenance (CAM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL AMOUNT PAYABLE BEFORE DUE DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERMS &amp; CONDITIONS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Particulars</t>
+  </si>
+  <si>
+    <t>HSN/SAC</t>
+  </si>
+  <si>
+    <t>Sq. Ft. Area</t>
+  </si>
+  <si>
+    <t>Common Area Maintenance (CAM)</t>
+  </si>
+  <si>
+    <t>TERMS &amp; CONDITIONS</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Account Payee/DD:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  To be made payable to, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <b/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ESSEL TOWERS ORLOV COURT RWA. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Acknowledgement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <b/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Payments above Rs.10,000/- will not be accepted in cash as per RBI Rules.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Discount:</t>
+      <t>Discount:</t>
     </r>
     <r>
       <rPr>
@@ -125,7 +72,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Outstanding Dues:</t>
+      <t>Outstanding Dues:</t>
     </r>
     <r>
       <rPr>
@@ -139,85 +86,85 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">This is a system generated document and does not require a signature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAX-INVOICE: MAINTENANCE/CAM BILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN NO:   AABAE2761L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSTIN/UIN: 06AABAE276ILIZQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essel Towers
+    <t>This is a system generated document and does not require a signature.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Bill Date</t>
+  </si>
+  <si>
+    <t>Bill No</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Occupant</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>TAX-INVOICE: MAINTENANCE/CAM BILL</t>
+  </si>
+  <si>
+    <t>PAN NO:   AABAE2761L</t>
+  </si>
+  <si>
+    <t>GSTIN/UIN: 06AABAE276ILIZQ</t>
+  </si>
+  <si>
+    <t>Essel Towers
 Orlov Court Residents Welfare Association</t>
   </si>
   <si>
-    <t xml:space="preserve">NET BANKING-  NEFT/RTGS</t>
+    <t>NET BANKING-  NEFT/RTGS</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Name:  HDFC Bank </t>
   </si>
   <si>
-    <t xml:space="preserve">Account No:  50100493615262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFSC Code:  HDFC0009390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
+    <t>Account No:  50100493615262</t>
+  </si>
+  <si>
+    <t>IFSC Code:  HDFC0009390</t>
+  </si>
+  <si>
+    <t>Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
 Email: orlovcourtrwa@gmail.com. Tel 0124 4144748</t>
   </si>
   <si>
-    <t xml:space="preserve">Rs. Per Sq. Ft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount Payable (Rs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount (in words)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr'22 to June'22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State Goods &amp; Services Tax @ 9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9%</t>
+    <t>Rs. Per Sq. Ft</t>
+  </si>
+  <si>
+    <t>Amount Payable (Rs)</t>
+  </si>
+  <si>
+    <t>Amount (in words)</t>
+  </si>
+  <si>
+    <t>SNo</t>
+  </si>
+  <si>
+    <t>Apr'22 to June'22</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Round off</t>
+  </si>
+  <si>
+    <t>State Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t>Central Goods &amp; Services Tax @ 9%</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Disputes:</t>
+      <t>Disputes:</t>
     </r>
     <r>
       <rPr>
@@ -231,11 +178,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -248,7 +195,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
+      <t>We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
     </r>
   </si>
   <si>
@@ -267,14 +214,14 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">orlovcourtrwa@gmail.com</t>
+      <t>orlovcourtrwa@gmail.com</t>
     </r>
     <r>
       <rPr>
@@ -288,22 +235,91 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA“</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E. and O.E.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous Dues + Interest @ 2% PM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Items #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total (5 to 7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Items #1</t>
+    <t>ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA“</t>
+  </si>
+  <si>
+    <t>E. and O.E.</t>
+  </si>
+  <si>
+    <t>Total (5 to 7)</t>
+  </si>
+  <si>
+    <r>
+      <t>Account Payee/DD:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  To be made payable to, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ESSEL TOWERS ORLOV COURT RWA. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Acknowledgement</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Cash payments upto Rs.1000/- will only be accepted for Electricity Recharge.</t>
+    </r>
+  </si>
+  <si>
+    <t>Declarations:</t>
+  </si>
+  <si>
+    <t>Your Virtual account # of HDFC</t>
+  </si>
+  <si>
+    <t>TOTAL AMOUNT PAYABLE FOR CURRENT QUARTER BEFORE DUE DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest @ 2% PM on Previous Dues </t>
+  </si>
+  <si>
+    <t>Previous Outstanding</t>
+  </si>
+  <si>
+    <t>Total Payable</t>
+  </si>
+  <si>
+    <t>ESSEL TOWER,GURGAON, HARYANA - 122002</t>
   </si>
 </sst>
 </file>
@@ -376,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -443,17 +459,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -592,19 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -629,16 +621,112 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -647,9 +735,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -660,42 +746,31 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -708,20 +783,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -729,10 +806,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -741,150 +818,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -902,7 +931,73 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -912,11 +1007,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1262,18 +1357,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:Q37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1287,93 +1382,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="A1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="A7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="E7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.55">
-      <c r="A8" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+    <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1394,56 +1489,58 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+        <v>11</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="46">
+        <v>10</v>
+      </c>
+      <c r="F11" s="27">
         <v>44658</v>
       </c>
-      <c r="G11" s="47"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="8"/>
       <c r="B12" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="45"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="57">
+        <v>14</v>
+      </c>
+      <c r="F13" s="41">
         <v>44676</v>
       </c>
-      <c r="G13" s="58"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1458,12 +1555,12 @@
     </row>
     <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="18" t="s">
         <v>2</v>
       </c>
@@ -1471,10 +1568,10 @@
         <v>3</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -1482,10 +1579,10 @@
       <c r="A16" s="13">
         <v>1</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="15">
         <v>997221</v>
       </c>
@@ -1506,16 +1603,12 @@
         <f>A16+1</f>
         <v>2</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>42</v>
-      </c>
+      <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1523,16 +1616,12 @@
         <f>A17+1</f>
         <v>3</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>40</v>
-      </c>
+      <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
@@ -1540,13 +1629,13 @@
         <f t="shared" ref="A19:A24" si="0">A18+1</f>
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>39</v>
+      <c r="B19" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="36"/>
-      <c r="F19" s="35"/>
+      <c r="F19" s="37"/>
       <c r="G19" s="14">
         <v>0</v>
       </c>
@@ -1557,13 +1646,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>31</v>
+      <c r="B20" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="36"/>
       <c r="D20" s="36"/>
       <c r="E20" s="36"/>
-      <c r="F20" s="35"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="14">
         <f>SUM(G16:G19)</f>
         <v>0</v>
@@ -1575,13 +1664,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>34</v>
+      <c r="B21" s="35" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
-      <c r="F21" s="35"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="14">
         <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
@@ -1593,13 +1682,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>33</v>
+      <c r="B22" s="35" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="35"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="14">
         <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
@@ -1611,13 +1700,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>41</v>
+      <c r="B23" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="36"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36"/>
-      <c r="F23" s="35"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="14">
         <f>SUM(G20:G22)</f>
         <v>0</v>
@@ -1629,13 +1718,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>32</v>
+      <c r="B24" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="36"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="35"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="14">
         <f>G25-G23</f>
         <v>0</v>
@@ -1643,14 +1732,16 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="A25" s="21">
+        <v>10</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="17">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
@@ -1658,153 +1749,233 @@
       <c r="H25" s="1"/>
       <c r="Q25" s="16"/>
     </row>
-    <row r="26" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
+    <row r="26" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
+    <row r="27" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="22">
+        <v>11</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="40"/>
+    <row r="28" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="23">
+        <v>12</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="24">
+        <f>G25+G27</f>
+        <v>0</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="33" t="s">
-        <v>37</v>
-      </c>
+    <row r="29" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
-      <c r="G29" s="41"/>
+      <c r="G29" s="31"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="33" t="s">
+    <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="2" t="s">
+      <c r="E32" s="52"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="24" t="s">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G41" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G37" s="20" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="39">
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B25:F25"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A1:E4"/>
     <mergeCell ref="F1:G4"/>
     <mergeCell ref="E7:G7"/>
@@ -1817,24 +1988,6 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/Samples/MasterTemplateV2.xlsx
+++ b/src/Samples/MasterTemplateV2.xlsx
@@ -3,26 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\invoice-generator\src\Samples\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDC3827-5E83-4835-80C9-1470CB6B96B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr autoRecover="0"/>
+  <fileRecoveryPr autoRecover="0" crashSave="0" dataExtractLoad="0" repairLoad="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -38,26 +32,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Particulars</t>
-  </si>
-  <si>
-    <t>HSN/SAC</t>
-  </si>
-  <si>
-    <t>Sq. Ft. Area</t>
-  </si>
-  <si>
-    <t>Common Area Maintenance (CAM)</t>
-  </si>
-  <si>
-    <t>TERMS &amp; CONDITIONS</t>
+    <t xml:space="preserve">Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particulars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSN/SAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sq. Ft. Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Area Maintenance (CAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMS &amp; CONDITIONS</t>
   </si>
   <si>
     <r>
-      <t>Discount:</t>
+      <t xml:space="preserve">Discount:</t>
     </r>
     <r>
       <rPr>
@@ -72,7 +66,7 @@
   </si>
   <si>
     <r>
-      <t>Outstanding Dues:</t>
+      <t xml:space="preserve">Outstanding Dues:</t>
     </r>
     <r>
       <rPr>
@@ -86,85 +80,85 @@
     </r>
   </si>
   <si>
-    <t>This is a system generated document and does not require a signature.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Bill Date</t>
-  </si>
-  <si>
-    <t>Bill No</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Occupant</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>TAX-INVOICE: MAINTENANCE/CAM BILL</t>
-  </si>
-  <si>
-    <t>PAN NO:   AABAE2761L</t>
-  </si>
-  <si>
-    <t>GSTIN/UIN: 06AABAE276ILIZQ</t>
-  </si>
-  <si>
-    <t>Essel Towers
+    <t xml:space="preserve">This is a system generated document and does not require a signature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occupant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAX-INVOICE: MAINTENANCE/CAM BILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN NO:   AABAE2761L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTIN/UIN: 06AABAE276ILIZQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essel Towers
 Orlov Court Residents Welfare Association</t>
   </si>
   <si>
-    <t>NET BANKING-  NEFT/RTGS</t>
+    <t xml:space="preserve">NET BANKING-  NEFT/RTGS</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Name:  HDFC Bank </t>
   </si>
   <si>
-    <t>Account No:  50100493615262</t>
-  </si>
-  <si>
-    <t>IFSC Code:  HDFC0009390</t>
-  </si>
-  <si>
-    <t>Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
+    <t xml:space="preserve">Account No:  50100493615262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFSC Code:  HDFC0009390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapphire Court (L-Block), Basement, Essel Towers, Main M.G. Road, Sector-28, Gurgaon – 122002, Haryana 
 Email: orlovcourtrwa@gmail.com. Tel 0124 4144748</t>
   </si>
   <si>
-    <t>Rs. Per Sq. Ft</t>
-  </si>
-  <si>
-    <t>Amount Payable (Rs)</t>
-  </si>
-  <si>
-    <t>Amount (in words)</t>
-  </si>
-  <si>
-    <t>SNo</t>
-  </si>
-  <si>
-    <t>Apr'22 to June'22</t>
-  </si>
-  <si>
-    <t>Sub Total</t>
-  </si>
-  <si>
-    <t>Round off</t>
-  </si>
-  <si>
-    <t>State Goods &amp; Services Tax @ 9%</t>
-  </si>
-  <si>
-    <t>Central Goods &amp; Services Tax @ 9%</t>
+    <t xml:space="preserve">Rs. Per Sq. Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount Payable (Rs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount (in words)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr'22 to June'22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State Goods &amp; Services Tax @ 9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Goods &amp; Services Tax @ 9%</t>
   </si>
   <si>
     <r>
-      <t>Disputes:</t>
+      <t xml:space="preserve">Disputes:</t>
     </r>
     <r>
       <rPr>
@@ -178,11 +172,11 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -195,7 +189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
+      <t xml:space="preserve">We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
     </r>
   </si>
   <si>
@@ -214,14 +208,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
-      <t>orlovcourtrwa@gmail.com</t>
+      <t xml:space="preserve">orlovcourtrwa@gmail.com</t>
     </r>
     <r>
       <rPr>
@@ -235,17 +229,17 @@
     </r>
   </si>
   <si>
-    <t>ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA“</t>
-  </si>
-  <si>
-    <t>E. and O.E.</t>
-  </si>
-  <si>
-    <t>Total (5 to 7)</t>
+    <t xml:space="preserve">ACCOUNT NAME: “ESSEL TOWERS ORLOV COURT RWA“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E. and O.E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total (5 to 7)</t>
   </si>
   <si>
     <r>
-      <t>Account Payee/DD:</t>
+      <t xml:space="preserve">Account Payee/DD:</t>
     </r>
     <r>
       <rPr>
@@ -259,11 +253,11 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ESSEL TOWERS ORLOV COURT RWA. </t>
@@ -276,15 +270,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Acknowledgement</t>
+      <t xml:space="preserve">Acknowledgement</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <b/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -297,29 +291,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Cash payments upto Rs.1000/- will only be accepted for Electricity Recharge.</t>
+      <t xml:space="preserve">is subject to realization of cheque. Bank charges of Rs.500 will be payable on dishonored cheques. Outstation cheques, are required to be payable on Par in Gurugram and should be sent by courier to above mentioned ETOCRWA address. Cash payments upto Rs.1000/- will only be accepted for Electricity Recharge.</t>
     </r>
   </si>
   <si>
-    <t>Declarations:</t>
-  </si>
-  <si>
-    <t>Your Virtual account # of HDFC</t>
-  </si>
-  <si>
-    <t>TOTAL AMOUNT PAYABLE FOR CURRENT QUARTER BEFORE DUE DATE</t>
+    <t xml:space="preserve">Declarations:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL AMOUNT PAYABLE FOR CURRENT QUARTER BEFORE DUE DATE</t>
   </si>
   <si>
     <t xml:space="preserve">Interest @ 2% PM on Previous Dues </t>
   </si>
   <si>
-    <t>Previous Outstanding</t>
-  </si>
-  <si>
-    <t>Total Payable</t>
-  </si>
-  <si>
-    <t>ESSEL TOWER,GURGAON, HARYANA - 122002</t>
+    <t xml:space="preserve">Previous Outstanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Payable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSEL TOWER,
+GURGAON, HARYANA - 122002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Appartement's HDFC virtual account is :</t>
   </si>
 </sst>
 </file>
@@ -392,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -750,10 +745,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -765,9 +760,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -779,26 +772,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -806,9 +784,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -834,9 +809,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -856,16 +828,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -898,24 +933,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -934,70 +951,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,11 +982,11 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1364,11 +1339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1382,93 +1357,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1482,65 +1457,65 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="46">
         <v>44658</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="11" t="s">
+    <row r="13" spans="1:8" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="54">
         <v>44676</v>
       </c>
-      <c r="G13" s="42"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1554,424 +1529,395 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13">
+      <c r="A16" s="19">
         <v>1</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="15">
+      <c r="C16" s="36"/>
+      <c r="D16" s="13">
         <v>997221</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="13">
         <v>0</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="12">
         <f>ROUND(F16*E16*3,0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="13">
+      <c r="A17" s="19">
         <f>A16+1</f>
         <v>2</v>
       </c>
       <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="14"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="13">
+      <c r="A18" s="19">
         <f>A17+1</f>
         <v>3</v>
       </c>
       <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="13">
+      <c r="A19" s="19">
         <f t="shared" ref="A19:A24" si="0">A18+1</f>
         <v>4</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="14">
+        <v>41</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="12">
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="13">
+      <c r="A20" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="14">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="12">
         <f>SUM(G16:G19)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="13">
+      <c r="A21" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="14">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="12">
         <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="13">
+      <c r="A22" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="14">
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="12">
         <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="13">
+      <c r="A23" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="14">
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="12">
         <f>SUM(G20:G22)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="13">
+      <c r="A24" s="19">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="14">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="12">
         <f>G25-G23</f>
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="21">
-        <v>10</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="17">
+      <c r="A25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="15">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="Q25" s="16"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="22">
-        <v>11</v>
-      </c>
-      <c r="B27" s="56" t="s">
+      <c r="A27" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="24">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="23">
-        <v>12</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="24">
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="20">
         <f>G25+G27</f>
         <v>0</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="58"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="3" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="67" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
+      <c r="A33" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="64"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="18" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B25:F25"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F10:G10"/>
@@ -1988,6 +1934,29 @@
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/Samples/MasterTemplateV2.xlsx
+++ b/src/Samples/MasterTemplateV2.xlsx
@@ -310,11 +310,11 @@
     <t xml:space="preserve">Total Payable</t>
   </si>
   <si>
-    <t xml:space="preserve">ESSEL TOWER,
-GURGAON, HARYANA - 122002</t>
-  </si>
-  <si>
     <t xml:space="preserve">Your Appartement's HDFC virtual account is :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSEL TOWER, GURGAON
+HARYANA - 122002</t>
   </si>
 </sst>
 </file>
@@ -387,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -679,19 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -704,7 +691,16 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -717,20 +713,35 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -738,17 +749,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -760,7 +771,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -776,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -784,55 +797,146 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -843,6 +947,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -852,109 +971,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -963,17 +986,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,7 +1044,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1029787</xdr:colOff>
+      <xdr:colOff>872536</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
@@ -1340,110 +1381,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:Q41"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="21.1328125" customWidth="1"/>
-    <col min="4" max="4" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1456,66 +1501,66 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="9" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="46">
+      <c r="G11" s="20">
         <v>44658</v>
       </c>
-      <c r="G11" s="47"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="G12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="45"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10" t="s">
+    <row r="13" spans="1:8" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="54">
+      <c r="G13" s="21">
         <v>44676</v>
       </c>
-      <c r="G13" s="55"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1528,438 +1573,498 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="40"/>
+      <c r="D15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="14" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="19">
+      <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="13">
+      <c r="C16" s="34"/>
+      <c r="D16" s="11">
         <v>997221</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <f>ROUND(F16*E16*3,0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="19">
+      <c r="A17" s="16">
         <f>A16+1</f>
         <v>2</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="12"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <f>A17+1</f>
         <v>3</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="12"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A19" s="19">
+      <c r="A19" s="16">
         <f t="shared" ref="A19:A24" si="0">A18+1</f>
         <v>4</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="12">
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="10">
         <v>0</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A20" s="19">
+      <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="12">
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="10">
         <f>SUM(G16:G19)</f>
         <v>0</v>
       </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19">
+      <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="12">
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="10">
         <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="19">
+      <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="12">
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="10">
         <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A23" s="19">
+      <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="12">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="10">
         <f>SUM(G20:G22)</f>
         <v>0</v>
       </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A24" s="19">
+      <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="12">
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="10">
         <f>G25-G23</f>
         <v>0</v>
       </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="25">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="Q25" s="14"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="24" t="s">
+    <row r="27" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="20">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="26">
         <v>0</v>
       </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="20">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="17">
         <f>G25+G27</f>
         <v>0</v>
       </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="34"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="67" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="A33" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="54"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="21" t="s">
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="72"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="72"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="21" t="s">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="24" t="s">
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="75"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="27" t="s">
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="66"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="G41" s="18" t="s">
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G47" s="15" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="F1:G4"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A5:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A35:G36"/>
+    <mergeCell ref="A37:G40"/>
+    <mergeCell ref="A42:G43"/>
+    <mergeCell ref="A44:G45"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="F1:G4"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/src/Samples/MasterTemplateV2.xlsx
+++ b/src/Samples/MasterTemplateV2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Owner</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">SNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apr'22 to June'22</t>
   </si>
   <si>
     <t xml:space="preserve">Sub Total</t>
@@ -190,42 +187,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">We declare this invoice shows the actual price of services described and that all particulars are true and correct.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Post Net Banking Transfer: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Kindly send confirmation  email to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <b/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">orlovcourtrwa@gmail.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> giving Name/ Apartment No/ Bank &amp; Branch/ Transaction No/Date of Transfer  &amp; Transfer Amount</t>
     </r>
   </si>
   <si>
@@ -315,6 +276,60 @@
   <si>
     <t xml:space="preserve">ESSEL TOWER, GURGAON
 HARYANA - 122002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Post Net Banking Transfer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Kindly send confirmation email to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <b/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">orlovcourtrwa@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> giving Name/ Apartment No/ Bank &amp; Branch/ Transaction No/Date of Transfer &amp; Transfer Amount.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <b/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">If payment is made via HDFC Virtual account the email confirmation is not required.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">27/12/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan'22 to March'22</t>
   </si>
 </sst>
 </file>
@@ -789,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -837,9 +852,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -861,7 +873,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -871,150 +1036,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,109 +1407,109 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:G33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="106" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" customWidth="1"/>
     <col min="4" max="4" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1506,60 +1527,60 @@
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="20">
-        <v>44658</v>
+      <c r="G11" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>28</v>
+      <c r="G12" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="29"/>
+      <c r="C13" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="79"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="21">
-        <v>44676</v>
+      <c r="G13" s="20">
+        <v>44951</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -1573,14 +1594,14 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="13" t="s">
         <v>2</v>
       </c>
@@ -1599,14 +1620,14 @@
       <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="34"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="11">
         <v>997221</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>0</v>
       </c>
       <c r="F16" s="11">
@@ -1623,11 +1644,11 @@
         <f>A16+1</f>
         <v>2</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="10"/>
       <c r="H17" s="1"/>
     </row>
@@ -1636,11 +1657,11 @@
         <f>A17+1</f>
         <v>3</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
       <c r="G18" s="10"/>
       <c r="H18" s="1"/>
     </row>
@@ -1649,13 +1670,13 @@
         <f t="shared" ref="A19:A24" si="0">A18+1</f>
         <v>4</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="G19" s="10">
         <v>0</v>
       </c>
@@ -1666,13 +1687,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="10">
         <f>SUM(G16:G19)</f>
         <v>0</v>
@@ -1684,13 +1705,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+      <c r="B21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="10">
         <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
@@ -1702,13 +1723,13 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+      <c r="B22" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="10">
         <f>IF(G20 &gt; 0, G20*0.09, 0)</f>
         <v>0</v>
@@ -1720,13 +1741,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="B23" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="10">
         <f>SUM(G20:G22)</f>
         <v>0</v>
@@ -1738,13 +1759,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+      <c r="B24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="10">
         <f>G25-G23</f>
         <v>0</v>
@@ -1752,15 +1773,15 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="25">
+      <c r="A25" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="24">
         <f>ROUND(G23, 0)</f>
         <v>0</v>
       </c>
@@ -1768,281 +1789,261 @@
       <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="26">
+        <f>IF(G25+G27 &lt; 0, 0, G25+G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A32" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="26">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="17">
-        <f>G25+G27</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="18" t="s">
-        <v>22</v>
-      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="66"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="A37" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="72"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="74"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="72"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="77"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="65"/>
+      <c r="A44" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="52"/>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="66"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G47" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="A35:G36"/>
-    <mergeCell ref="A37:G40"/>
-    <mergeCell ref="A42:G43"/>
-    <mergeCell ref="A44:G45"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
+  <mergeCells count="38">
     <mergeCell ref="A1:E4"/>
     <mergeCell ref="F1:G4"/>
     <mergeCell ref="E7:G7"/>
@@ -2059,9 +2060,28 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="A37:G40"/>
+    <mergeCell ref="A42:G43"/>
+    <mergeCell ref="A44:G45"/>
+    <mergeCell ref="A34:G36"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
